--- a/TAB_VT_CAMFRIGO_16OM_SERVICOS.xlsx
+++ b/TAB_VT_CAMFRIGO_16OM_SERVICOS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brito\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GoogleDrive britointeb\PROGRAMACAO\NOTEBOOKS\STREAMLIT\PJT_CAM_FRIGO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2FFD82D-2E63-4136-8923-824BA624B678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A25D480-1ACE-4A8C-9395-85D0AB1EDA60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19826" yWindow="1997" windowWidth="17280" windowHeight="12317" xr2:uid="{F0AE66D3-88E1-410D-BC3B-BD257DEDE1AE}"/>
+    <workbookView xWindow="3912" yWindow="690" windowWidth="17280" windowHeight="12318" xr2:uid="{F0AE66D3-88E1-410D-BC3B-BD257DEDE1AE}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="391" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="64">
   <si>
     <t>MECÂNICA</t>
   </si>
@@ -177,6 +177,57 @@
   </si>
   <si>
     <t>NR RELATORIO</t>
+  </si>
+  <si>
+    <t>11º GAAAe</t>
+  </si>
+  <si>
+    <t>CMB</t>
+  </si>
+  <si>
+    <t>16º BLog</t>
+  </si>
+  <si>
+    <t>11º D Sup</t>
+  </si>
+  <si>
+    <t>HMAB</t>
+  </si>
+  <si>
+    <t>32º GAC</t>
+  </si>
+  <si>
+    <t>3º Esq C Mec</t>
+  </si>
+  <si>
+    <t>Ba Adm/QGEx</t>
+  </si>
+  <si>
+    <t>Gab Cmt Ex</t>
+  </si>
+  <si>
+    <t>BGP</t>
+  </si>
+  <si>
+    <t>BPEB</t>
+  </si>
+  <si>
+    <t>CIE</t>
+  </si>
+  <si>
+    <t>Ba Adm Ap/ CMP</t>
+  </si>
+  <si>
+    <t>2º CGeo</t>
+  </si>
+  <si>
+    <t>Ba Adm/C Com GEx</t>
+  </si>
+  <si>
+    <t>NOME DA OM</t>
+  </si>
+  <si>
+    <t>1º RCGd</t>
   </si>
 </sst>
 </file>
@@ -569,10 +620,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D63CB556-55A7-44D8-8584-B39BCD6913D2}">
-  <dimension ref="A1:G144"/>
+  <dimension ref="A1:H144"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection sqref="A1:G1"/>
+    <sheetView tabSelected="1" topLeftCell="B124" workbookViewId="0">
+      <selection activeCell="F137" sqref="F137:F144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -582,11 +633,12 @@
     <col min="3" max="3" width="14.83984375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.89453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.68359375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="50.578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.05078125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="50.578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="26.578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -602,14 +654,17 @@
       <c r="E1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>39</v>
       </c>
       <c r="G1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -626,13 +681,16 @@
         <v>202511000050</v>
       </c>
       <c r="F2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -649,13 +707,16 @@
         <v>202511000050</v>
       </c>
       <c r="F3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -672,13 +733,16 @@
         <v>202511000050</v>
       </c>
       <c r="F4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" t="s">
         <v>9</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -695,13 +759,16 @@
         <v>202511000050</v>
       </c>
       <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" t="s">
         <v>9</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
@@ -718,13 +785,16 @@
         <v>202511000050</v>
       </c>
       <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" t="s">
         <v>9</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
@@ -741,13 +811,16 @@
         <v>202511000050</v>
       </c>
       <c r="F7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G7" t="s">
         <v>9</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
@@ -764,13 +837,16 @@
         <v>202511000050</v>
       </c>
       <c r="F8" t="s">
+        <v>47</v>
+      </c>
+      <c r="G8" t="s">
         <v>9</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
@@ -787,13 +863,16 @@
         <v>202511000050</v>
       </c>
       <c r="F9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" t="s">
         <v>9</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>1</v>
       </c>
@@ -810,13 +889,16 @@
         <v>202511000051</v>
       </c>
       <c r="F11" t="s">
+        <v>48</v>
+      </c>
+      <c r="G11" t="s">
         <v>11</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>2</v>
       </c>
@@ -830,13 +912,16 @@
         <v>202511000051</v>
       </c>
       <c r="F12" t="s">
+        <v>48</v>
+      </c>
+      <c r="G12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>3</v>
       </c>
@@ -853,13 +938,16 @@
         <v>202511000051</v>
       </c>
       <c r="F13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" t="s">
         <v>11</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>4</v>
       </c>
@@ -876,13 +964,16 @@
         <v>202511000051</v>
       </c>
       <c r="F14" t="s">
+        <v>48</v>
+      </c>
+      <c r="G14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>5</v>
       </c>
@@ -899,13 +990,16 @@
         <v>202511000051</v>
       </c>
       <c r="F15" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" t="s">
         <v>11</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>6</v>
       </c>
@@ -922,13 +1016,16 @@
         <v>202511000051</v>
       </c>
       <c r="F16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>7</v>
       </c>
@@ -945,13 +1042,16 @@
         <v>202511000051</v>
       </c>
       <c r="F17" t="s">
+        <v>48</v>
+      </c>
+      <c r="G17" t="s">
         <v>11</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>8</v>
       </c>
@@ -968,13 +1068,16 @@
         <v>202511000051</v>
       </c>
       <c r="F18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>1</v>
       </c>
@@ -991,13 +1094,16 @@
         <v>202511000052</v>
       </c>
       <c r="F20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" t="s">
         <v>13</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>2</v>
       </c>
@@ -1014,13 +1120,16 @@
         <v>202511000052</v>
       </c>
       <c r="F21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G21" t="s">
         <v>13</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>3</v>
       </c>
@@ -1037,13 +1146,16 @@
         <v>202511000052</v>
       </c>
       <c r="F22" t="s">
+        <v>49</v>
+      </c>
+      <c r="G22" t="s">
         <v>13</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>4</v>
       </c>
@@ -1060,13 +1172,16 @@
         <v>202511000052</v>
       </c>
       <c r="F23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G23" t="s">
         <v>13</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>5</v>
       </c>
@@ -1083,13 +1198,16 @@
         <v>202511000052</v>
       </c>
       <c r="F24" t="s">
+        <v>49</v>
+      </c>
+      <c r="G24" t="s">
         <v>13</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>6</v>
       </c>
@@ -1106,13 +1224,16 @@
         <v>202511000052</v>
       </c>
       <c r="F25" t="s">
+        <v>49</v>
+      </c>
+      <c r="G25" t="s">
         <v>13</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>7</v>
       </c>
@@ -1129,13 +1250,16 @@
         <v>202511000052</v>
       </c>
       <c r="F26" t="s">
+        <v>49</v>
+      </c>
+      <c r="G26" t="s">
         <v>13</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>8</v>
       </c>
@@ -1152,13 +1276,16 @@
         <v>202511000052</v>
       </c>
       <c r="F27" t="s">
+        <v>49</v>
+      </c>
+      <c r="G27" t="s">
         <v>13</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>1</v>
       </c>
@@ -1175,13 +1302,16 @@
         <v>202511000053</v>
       </c>
       <c r="F29" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" t="s">
         <v>15</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>2</v>
       </c>
@@ -1195,13 +1325,16 @@
         <v>202511000053</v>
       </c>
       <c r="F30" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" t="s">
         <v>15</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>3</v>
       </c>
@@ -1218,13 +1351,16 @@
         <v>202511000053</v>
       </c>
       <c r="F31" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" t="s">
         <v>15</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>4</v>
       </c>
@@ -1241,13 +1377,16 @@
         <v>202511000053</v>
       </c>
       <c r="F32" t="s">
+        <v>50</v>
+      </c>
+      <c r="G32" t="s">
         <v>15</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>5</v>
       </c>
@@ -1264,13 +1403,16 @@
         <v>202511000053</v>
       </c>
       <c r="F33" t="s">
+        <v>50</v>
+      </c>
+      <c r="G33" t="s">
         <v>15</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>6</v>
       </c>
@@ -1287,13 +1429,16 @@
         <v>202511000053</v>
       </c>
       <c r="F34" t="s">
+        <v>50</v>
+      </c>
+      <c r="G34" t="s">
         <v>15</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>7</v>
       </c>
@@ -1310,13 +1455,16 @@
         <v>202511000053</v>
       </c>
       <c r="F35" t="s">
+        <v>50</v>
+      </c>
+      <c r="G35" t="s">
         <v>15</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>8</v>
       </c>
@@ -1333,13 +1481,16 @@
         <v>202511000053</v>
       </c>
       <c r="F36" t="s">
+        <v>50</v>
+      </c>
+      <c r="G36" t="s">
         <v>15</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>1</v>
       </c>
@@ -1356,13 +1507,16 @@
         <v>202511000054</v>
       </c>
       <c r="F38" t="s">
+        <v>51</v>
+      </c>
+      <c r="G38" t="s">
         <v>17</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1376,13 +1530,16 @@
         <v>202511000054</v>
       </c>
       <c r="F39" t="s">
+        <v>51</v>
+      </c>
+      <c r="G39" t="s">
         <v>17</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>3</v>
       </c>
@@ -1399,13 +1556,16 @@
         <v>202511000054</v>
       </c>
       <c r="F40" t="s">
+        <v>51</v>
+      </c>
+      <c r="G40" t="s">
         <v>17</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>4</v>
       </c>
@@ -1422,13 +1582,16 @@
         <v>202511000054</v>
       </c>
       <c r="F41" t="s">
+        <v>51</v>
+      </c>
+      <c r="G41" t="s">
         <v>17</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>5</v>
       </c>
@@ -1445,13 +1608,16 @@
         <v>202511000054</v>
       </c>
       <c r="F42" t="s">
+        <v>51</v>
+      </c>
+      <c r="G42" t="s">
         <v>17</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>6</v>
       </c>
@@ -1468,13 +1634,16 @@
         <v>202511000054</v>
       </c>
       <c r="F43" t="s">
+        <v>51</v>
+      </c>
+      <c r="G43" t="s">
         <v>17</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>7</v>
       </c>
@@ -1491,13 +1660,16 @@
         <v>202511000054</v>
       </c>
       <c r="F44" t="s">
+        <v>51</v>
+      </c>
+      <c r="G44" t="s">
         <v>17</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>8</v>
       </c>
@@ -1514,13 +1686,16 @@
         <v>202511000054</v>
       </c>
       <c r="F45" t="s">
+        <v>51</v>
+      </c>
+      <c r="G45" t="s">
         <v>17</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>1</v>
       </c>
@@ -1537,13 +1712,16 @@
         <v>202511000055</v>
       </c>
       <c r="F47" t="s">
+        <v>52</v>
+      </c>
+      <c r="G47" t="s">
         <v>19</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>2</v>
       </c>
@@ -1560,13 +1738,16 @@
         <v>202511000055</v>
       </c>
       <c r="F48" t="s">
+        <v>52</v>
+      </c>
+      <c r="G48" t="s">
         <v>19</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>3</v>
       </c>
@@ -1583,13 +1764,16 @@
         <v>202511000055</v>
       </c>
       <c r="F49" t="s">
+        <v>52</v>
+      </c>
+      <c r="G49" t="s">
         <v>19</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>4</v>
       </c>
@@ -1606,13 +1790,16 @@
         <v>202511000055</v>
       </c>
       <c r="F50" t="s">
+        <v>52</v>
+      </c>
+      <c r="G50" t="s">
         <v>19</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>5</v>
       </c>
@@ -1629,13 +1816,16 @@
         <v>202511000055</v>
       </c>
       <c r="F51" t="s">
+        <v>52</v>
+      </c>
+      <c r="G51" t="s">
         <v>19</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>6</v>
       </c>
@@ -1652,13 +1842,16 @@
         <v>202511000055</v>
       </c>
       <c r="F52" t="s">
+        <v>52</v>
+      </c>
+      <c r="G52" t="s">
         <v>19</v>
       </c>
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>7</v>
       </c>
@@ -1675,13 +1868,16 @@
         <v>202511000055</v>
       </c>
       <c r="F53" t="s">
+        <v>52</v>
+      </c>
+      <c r="G53" t="s">
         <v>19</v>
       </c>
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>8</v>
       </c>
@@ -1698,13 +1894,16 @@
         <v>202511000055</v>
       </c>
       <c r="F54" t="s">
+        <v>52</v>
+      </c>
+      <c r="G54" t="s">
         <v>19</v>
       </c>
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>1</v>
       </c>
@@ -1721,13 +1920,16 @@
         <v>202511000056</v>
       </c>
       <c r="F56" t="s">
+        <v>53</v>
+      </c>
+      <c r="G56" t="s">
         <v>21</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>2</v>
       </c>
@@ -1744,13 +1946,16 @@
         <v>202511000056</v>
       </c>
       <c r="F57" t="s">
+        <v>53</v>
+      </c>
+      <c r="G57" t="s">
         <v>21</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>3</v>
       </c>
@@ -1767,13 +1972,16 @@
         <v>202511000056</v>
       </c>
       <c r="F58" t="s">
+        <v>53</v>
+      </c>
+      <c r="G58" t="s">
         <v>21</v>
       </c>
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>4</v>
       </c>
@@ -1790,13 +1998,16 @@
         <v>202511000056</v>
       </c>
       <c r="F59" t="s">
+        <v>53</v>
+      </c>
+      <c r="G59" t="s">
         <v>21</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>5</v>
       </c>
@@ -1813,13 +2024,16 @@
         <v>202511000056</v>
       </c>
       <c r="F60" t="s">
+        <v>53</v>
+      </c>
+      <c r="G60" t="s">
         <v>21</v>
       </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>6</v>
       </c>
@@ -1836,13 +2050,16 @@
         <v>202511000056</v>
       </c>
       <c r="F61" t="s">
+        <v>53</v>
+      </c>
+      <c r="G61" t="s">
         <v>21</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>7</v>
       </c>
@@ -1859,13 +2076,16 @@
         <v>202511000056</v>
       </c>
       <c r="F62" t="s">
+        <v>53</v>
+      </c>
+      <c r="G62" t="s">
         <v>21</v>
       </c>
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>8</v>
       </c>
@@ -1882,13 +2102,16 @@
         <v>202511000056</v>
       </c>
       <c r="F63" t="s">
+        <v>53</v>
+      </c>
+      <c r="G63" t="s">
         <v>21</v>
       </c>
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>1</v>
       </c>
@@ -1905,13 +2128,16 @@
         <v>202511000057</v>
       </c>
       <c r="F65" t="s">
+        <v>54</v>
+      </c>
+      <c r="G65" t="s">
         <v>22</v>
       </c>
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>2</v>
       </c>
@@ -1925,13 +2151,16 @@
         <v>202511000057</v>
       </c>
       <c r="F66" t="s">
+        <v>54</v>
+      </c>
+      <c r="G66" t="s">
         <v>22</v>
       </c>
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>3</v>
       </c>
@@ -1948,13 +2177,16 @@
         <v>202511000057</v>
       </c>
       <c r="F67" t="s">
+        <v>54</v>
+      </c>
+      <c r="G67" t="s">
         <v>22</v>
       </c>
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>4</v>
       </c>
@@ -1971,13 +2203,16 @@
         <v>202511000057</v>
       </c>
       <c r="F68" t="s">
+        <v>54</v>
+      </c>
+      <c r="G68" t="s">
         <v>22</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>5</v>
       </c>
@@ -1994,13 +2229,16 @@
         <v>202511000057</v>
       </c>
       <c r="F69" t="s">
+        <v>54</v>
+      </c>
+      <c r="G69" t="s">
         <v>22</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>6</v>
       </c>
@@ -2017,13 +2255,16 @@
         <v>202511000057</v>
       </c>
       <c r="F70" t="s">
+        <v>54</v>
+      </c>
+      <c r="G70" t="s">
         <v>22</v>
       </c>
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <v>7</v>
       </c>
@@ -2040,13 +2281,16 @@
         <v>202511000057</v>
       </c>
       <c r="F71" t="s">
+        <v>54</v>
+      </c>
+      <c r="G71" t="s">
         <v>22</v>
       </c>
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <v>8</v>
       </c>
@@ -2063,13 +2307,16 @@
         <v>202511000057</v>
       </c>
       <c r="F72" t="s">
+        <v>54</v>
+      </c>
+      <c r="G72" t="s">
         <v>22</v>
       </c>
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <v>1</v>
       </c>
@@ -2086,13 +2333,16 @@
         <v>202511000058</v>
       </c>
       <c r="F74" t="s">
+        <v>55</v>
+      </c>
+      <c r="G74" t="s">
         <v>24</v>
       </c>
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>2</v>
       </c>
@@ -2106,13 +2356,16 @@
         <v>202511000058</v>
       </c>
       <c r="F75" t="s">
+        <v>55</v>
+      </c>
+      <c r="G75" t="s">
         <v>24</v>
       </c>
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>3</v>
       </c>
@@ -2129,13 +2382,16 @@
         <v>202511000058</v>
       </c>
       <c r="F76" t="s">
+        <v>55</v>
+      </c>
+      <c r="G76" t="s">
         <v>24</v>
       </c>
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <v>4</v>
       </c>
@@ -2152,13 +2408,16 @@
         <v>202511000058</v>
       </c>
       <c r="F77" t="s">
+        <v>55</v>
+      </c>
+      <c r="G77" t="s">
         <v>24</v>
       </c>
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <v>5</v>
       </c>
@@ -2175,13 +2434,16 @@
         <v>202511000058</v>
       </c>
       <c r="F78" t="s">
+        <v>55</v>
+      </c>
+      <c r="G78" t="s">
         <v>24</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
         <v>6</v>
       </c>
@@ -2198,13 +2460,16 @@
         <v>202511000058</v>
       </c>
       <c r="F79" t="s">
+        <v>55</v>
+      </c>
+      <c r="G79" t="s">
         <v>24</v>
       </c>
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <v>7</v>
       </c>
@@ -2221,13 +2486,16 @@
         <v>202511000058</v>
       </c>
       <c r="F80" t="s">
+        <v>55</v>
+      </c>
+      <c r="G80" t="s">
         <v>24</v>
       </c>
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
         <v>8</v>
       </c>
@@ -2244,13 +2512,16 @@
         <v>202511000058</v>
       </c>
       <c r="F81" t="s">
+        <v>55</v>
+      </c>
+      <c r="G81" t="s">
         <v>24</v>
       </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
         <v>1</v>
       </c>
@@ -2267,13 +2538,16 @@
         <v>202511000059</v>
       </c>
       <c r="F83" t="s">
+        <v>56</v>
+      </c>
+      <c r="G83" t="s">
         <v>26</v>
       </c>
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
         <v>2</v>
       </c>
@@ -2290,13 +2564,16 @@
         <v>202511000059</v>
       </c>
       <c r="F84" t="s">
+        <v>56</v>
+      </c>
+      <c r="G84" t="s">
         <v>26</v>
       </c>
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
         <v>3</v>
       </c>
@@ -2313,13 +2590,16 @@
         <v>202511000059</v>
       </c>
       <c r="F85" t="s">
+        <v>56</v>
+      </c>
+      <c r="G85" t="s">
         <v>26</v>
       </c>
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
         <v>4</v>
       </c>
@@ -2336,13 +2616,16 @@
         <v>202511000059</v>
       </c>
       <c r="F86" t="s">
+        <v>56</v>
+      </c>
+      <c r="G86" t="s">
         <v>26</v>
       </c>
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <v>5</v>
       </c>
@@ -2359,13 +2642,16 @@
         <v>202511000059</v>
       </c>
       <c r="F87" t="s">
+        <v>56</v>
+      </c>
+      <c r="G87" t="s">
         <v>26</v>
       </c>
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
         <v>6</v>
       </c>
@@ -2382,13 +2668,16 @@
         <v>202511000059</v>
       </c>
       <c r="F88" t="s">
+        <v>56</v>
+      </c>
+      <c r="G88" t="s">
         <v>26</v>
       </c>
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
         <v>7</v>
       </c>
@@ -2405,13 +2694,16 @@
         <v>202511000059</v>
       </c>
       <c r="F89" t="s">
+        <v>56</v>
+      </c>
+      <c r="G89" t="s">
         <v>26</v>
       </c>
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
         <v>8</v>
       </c>
@@ -2428,13 +2720,16 @@
         <v>202511000059</v>
       </c>
       <c r="F90" t="s">
+        <v>56</v>
+      </c>
+      <c r="G90" t="s">
         <v>26</v>
       </c>
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
         <v>1</v>
       </c>
@@ -2451,13 +2746,16 @@
         <v>202511000060</v>
       </c>
       <c r="F92" t="s">
+        <v>57</v>
+      </c>
+      <c r="G92" t="s">
         <v>28</v>
       </c>
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
         <v>2</v>
       </c>
@@ -2471,13 +2769,16 @@
         <v>202511000060</v>
       </c>
       <c r="F93" t="s">
+        <v>57</v>
+      </c>
+      <c r="G93" t="s">
         <v>28</v>
       </c>
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
         <v>3</v>
       </c>
@@ -2494,13 +2795,16 @@
         <v>202511000060</v>
       </c>
       <c r="F94" t="s">
+        <v>57</v>
+      </c>
+      <c r="G94" t="s">
         <v>28</v>
       </c>
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
         <v>4</v>
       </c>
@@ -2517,13 +2821,16 @@
         <v>202511000060</v>
       </c>
       <c r="F95" t="s">
+        <v>57</v>
+      </c>
+      <c r="G95" t="s">
         <v>28</v>
       </c>
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
         <v>5</v>
       </c>
@@ -2540,13 +2847,16 @@
         <v>202511000060</v>
       </c>
       <c r="F96" t="s">
+        <v>57</v>
+      </c>
+      <c r="G96" t="s">
         <v>28</v>
       </c>
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
         <v>6</v>
       </c>
@@ -2563,13 +2873,16 @@
         <v>202511000060</v>
       </c>
       <c r="F97" t="s">
+        <v>57</v>
+      </c>
+      <c r="G97" t="s">
         <v>28</v>
       </c>
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
         <v>7</v>
       </c>
@@ -2586,13 +2899,16 @@
         <v>202511000060</v>
       </c>
       <c r="F98" t="s">
+        <v>57</v>
+      </c>
+      <c r="G98" t="s">
         <v>28</v>
       </c>
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
         <v>8</v>
       </c>
@@ -2609,13 +2925,16 @@
         <v>202511000060</v>
       </c>
       <c r="F99" t="s">
+        <v>57</v>
+      </c>
+      <c r="G99" t="s">
         <v>28</v>
       </c>
-      <c r="G99" t="s">
+      <c r="H99" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
         <v>1</v>
       </c>
@@ -2632,13 +2951,16 @@
         <v>202511000061</v>
       </c>
       <c r="F101" t="s">
+        <v>58</v>
+      </c>
+      <c r="G101" t="s">
         <v>30</v>
       </c>
-      <c r="G101" t="s">
+      <c r="H101" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
         <v>2</v>
       </c>
@@ -2655,13 +2977,16 @@
         <v>202511000061</v>
       </c>
       <c r="F102" t="s">
+        <v>58</v>
+      </c>
+      <c r="G102" t="s">
         <v>30</v>
       </c>
-      <c r="G102" t="s">
+      <c r="H102" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
         <v>3</v>
       </c>
@@ -2678,13 +3003,16 @@
         <v>202511000061</v>
       </c>
       <c r="F103" t="s">
+        <v>58</v>
+      </c>
+      <c r="G103" t="s">
         <v>30</v>
       </c>
-      <c r="G103" t="s">
+      <c r="H103" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
         <v>4</v>
       </c>
@@ -2701,13 +3029,16 @@
         <v>202511000061</v>
       </c>
       <c r="F104" t="s">
+        <v>58</v>
+      </c>
+      <c r="G104" t="s">
         <v>30</v>
       </c>
-      <c r="G104" t="s">
+      <c r="H104" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
         <v>5</v>
       </c>
@@ -2724,13 +3055,16 @@
         <v>202511000061</v>
       </c>
       <c r="F105" t="s">
+        <v>58</v>
+      </c>
+      <c r="G105" t="s">
         <v>30</v>
       </c>
-      <c r="G105" t="s">
+      <c r="H105" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
         <v>6</v>
       </c>
@@ -2747,13 +3081,16 @@
         <v>202511000061</v>
       </c>
       <c r="F106" t="s">
+        <v>58</v>
+      </c>
+      <c r="G106" t="s">
         <v>30</v>
       </c>
-      <c r="G106" t="s">
+      <c r="H106" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
         <v>7</v>
       </c>
@@ -2770,13 +3107,16 @@
         <v>202511000061</v>
       </c>
       <c r="F107" t="s">
+        <v>58</v>
+      </c>
+      <c r="G107" t="s">
         <v>30</v>
       </c>
-      <c r="G107" t="s">
+      <c r="H107" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
         <v>8</v>
       </c>
@@ -2793,13 +3133,16 @@
         <v>202511000061</v>
       </c>
       <c r="F108" t="s">
+        <v>58</v>
+      </c>
+      <c r="G108" t="s">
         <v>30</v>
       </c>
-      <c r="G108" t="s">
+      <c r="H108" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
         <v>1</v>
       </c>
@@ -2816,13 +3159,16 @@
         <v>202511000062</v>
       </c>
       <c r="F110" t="s">
+        <v>59</v>
+      </c>
+      <c r="G110" t="s">
         <v>32</v>
       </c>
-      <c r="G110" t="s">
+      <c r="H110" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
         <v>2</v>
       </c>
@@ -2836,13 +3182,16 @@
         <v>202511000062</v>
       </c>
       <c r="F111" t="s">
+        <v>59</v>
+      </c>
+      <c r="G111" t="s">
         <v>32</v>
       </c>
-      <c r="G111" t="s">
+      <c r="H111" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A112">
         <v>3</v>
       </c>
@@ -2859,13 +3208,16 @@
         <v>202511000062</v>
       </c>
       <c r="F112" t="s">
+        <v>59</v>
+      </c>
+      <c r="G112" t="s">
         <v>32</v>
       </c>
-      <c r="G112" t="s">
+      <c r="H112" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
         <v>4</v>
       </c>
@@ -2882,13 +3234,16 @@
         <v>202511000062</v>
       </c>
       <c r="F113" t="s">
+        <v>59</v>
+      </c>
+      <c r="G113" t="s">
         <v>32</v>
       </c>
-      <c r="G113" t="s">
+      <c r="H113" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A114">
         <v>5</v>
       </c>
@@ -2905,13 +3260,16 @@
         <v>202511000062</v>
       </c>
       <c r="F114" t="s">
+        <v>59</v>
+      </c>
+      <c r="G114" t="s">
         <v>32</v>
       </c>
-      <c r="G114" t="s">
+      <c r="H114" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A115">
         <v>6</v>
       </c>
@@ -2928,13 +3286,16 @@
         <v>202511000062</v>
       </c>
       <c r="F115" t="s">
+        <v>59</v>
+      </c>
+      <c r="G115" t="s">
         <v>32</v>
       </c>
-      <c r="G115" t="s">
+      <c r="H115" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A116">
         <v>7</v>
       </c>
@@ -2951,13 +3312,16 @@
         <v>202511000062</v>
       </c>
       <c r="F116" t="s">
+        <v>59</v>
+      </c>
+      <c r="G116" t="s">
         <v>32</v>
       </c>
-      <c r="G116" t="s">
+      <c r="H116" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A117">
         <v>8</v>
       </c>
@@ -2974,13 +3338,16 @@
         <v>202511000062</v>
       </c>
       <c r="F117" t="s">
+        <v>59</v>
+      </c>
+      <c r="G117" t="s">
         <v>32</v>
       </c>
-      <c r="G117" t="s">
+      <c r="H117" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
         <v>1</v>
       </c>
@@ -2997,13 +3364,16 @@
         <v>202511000063</v>
       </c>
       <c r="F119" t="s">
+        <v>60</v>
+      </c>
+      <c r="G119" t="s">
         <v>34</v>
       </c>
-      <c r="G119" t="s">
+      <c r="H119" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
         <v>2</v>
       </c>
@@ -3020,13 +3390,16 @@
         <v>202511000063</v>
       </c>
       <c r="F120" t="s">
+        <v>60</v>
+      </c>
+      <c r="G120" t="s">
         <v>34</v>
       </c>
-      <c r="G120" t="s">
+      <c r="H120" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
         <v>3</v>
       </c>
@@ -3043,13 +3416,16 @@
         <v>202511000063</v>
       </c>
       <c r="F121" t="s">
+        <v>60</v>
+      </c>
+      <c r="G121" t="s">
         <v>34</v>
       </c>
-      <c r="G121" t="s">
+      <c r="H121" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A122">
         <v>4</v>
       </c>
@@ -3066,13 +3442,16 @@
         <v>202511000063</v>
       </c>
       <c r="F122" t="s">
+        <v>60</v>
+      </c>
+      <c r="G122" t="s">
         <v>34</v>
       </c>
-      <c r="G122" t="s">
+      <c r="H122" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A123">
         <v>5</v>
       </c>
@@ -3089,13 +3468,16 @@
         <v>202511000063</v>
       </c>
       <c r="F123" t="s">
+        <v>60</v>
+      </c>
+      <c r="G123" t="s">
         <v>34</v>
       </c>
-      <c r="G123" t="s">
+      <c r="H123" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A124">
         <v>6</v>
       </c>
@@ -3112,13 +3494,16 @@
         <v>202511000063</v>
       </c>
       <c r="F124" t="s">
+        <v>60</v>
+      </c>
+      <c r="G124" t="s">
         <v>34</v>
       </c>
-      <c r="G124" t="s">
+      <c r="H124" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A125">
         <v>7</v>
       </c>
@@ -3135,13 +3520,16 @@
         <v>202511000063</v>
       </c>
       <c r="F125" t="s">
+        <v>60</v>
+      </c>
+      <c r="G125" t="s">
         <v>34</v>
       </c>
-      <c r="G125" t="s">
+      <c r="H125" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A126">
         <v>8</v>
       </c>
@@ -3158,13 +3546,16 @@
         <v>202511000063</v>
       </c>
       <c r="F126" t="s">
+        <v>60</v>
+      </c>
+      <c r="G126" t="s">
         <v>34</v>
       </c>
-      <c r="G126" t="s">
+      <c r="H126" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A128">
         <v>1</v>
       </c>
@@ -3181,13 +3572,16 @@
         <v>202511000064</v>
       </c>
       <c r="F128" t="s">
+        <v>61</v>
+      </c>
+      <c r="G128" t="s">
         <v>36</v>
       </c>
-      <c r="G128" t="s">
+      <c r="H128" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A129">
         <v>2</v>
       </c>
@@ -3204,13 +3598,16 @@
         <v>202511000064</v>
       </c>
       <c r="F129" t="s">
+        <v>61</v>
+      </c>
+      <c r="G129" t="s">
         <v>36</v>
       </c>
-      <c r="G129" t="s">
+      <c r="H129" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A130">
         <v>3</v>
       </c>
@@ -3227,13 +3624,16 @@
         <v>202511000064</v>
       </c>
       <c r="F130" t="s">
+        <v>61</v>
+      </c>
+      <c r="G130" t="s">
         <v>36</v>
       </c>
-      <c r="G130" t="s">
+      <c r="H130" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A131">
         <v>4</v>
       </c>
@@ -3250,13 +3650,16 @@
         <v>202511000064</v>
       </c>
       <c r="F131" t="s">
+        <v>61</v>
+      </c>
+      <c r="G131" t="s">
         <v>36</v>
       </c>
-      <c r="G131" t="s">
+      <c r="H131" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A132">
         <v>5</v>
       </c>
@@ -3273,13 +3676,16 @@
         <v>202511000064</v>
       </c>
       <c r="F132" t="s">
+        <v>61</v>
+      </c>
+      <c r="G132" t="s">
         <v>36</v>
       </c>
-      <c r="G132" t="s">
+      <c r="H132" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A133">
         <v>6</v>
       </c>
@@ -3296,13 +3702,16 @@
         <v>202511000064</v>
       </c>
       <c r="F133" t="s">
+        <v>61</v>
+      </c>
+      <c r="G133" t="s">
         <v>36</v>
       </c>
-      <c r="G133" t="s">
+      <c r="H133" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A134">
         <v>7</v>
       </c>
@@ -3319,13 +3728,16 @@
         <v>202511000064</v>
       </c>
       <c r="F134" t="s">
+        <v>61</v>
+      </c>
+      <c r="G134" t="s">
         <v>36</v>
       </c>
-      <c r="G134" t="s">
+      <c r="H134" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A135">
         <v>8</v>
       </c>
@@ -3342,13 +3754,16 @@
         <v>202511000064</v>
       </c>
       <c r="F135" t="s">
+        <v>61</v>
+      </c>
+      <c r="G135" t="s">
         <v>36</v>
       </c>
-      <c r="G135" t="s">
+      <c r="H135" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A137">
         <v>1</v>
       </c>
@@ -3365,13 +3780,16 @@
         <v>202511000065</v>
       </c>
       <c r="F137" t="s">
+        <v>63</v>
+      </c>
+      <c r="G137" t="s">
         <v>38</v>
       </c>
-      <c r="G137" t="s">
+      <c r="H137" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A138">
         <v>2</v>
       </c>
@@ -3388,13 +3806,16 @@
         <v>202511000065</v>
       </c>
       <c r="F138" t="s">
+        <v>63</v>
+      </c>
+      <c r="G138" t="s">
         <v>38</v>
       </c>
-      <c r="G138" t="s">
+      <c r="H138" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A139">
         <v>3</v>
       </c>
@@ -3411,13 +3832,16 @@
         <v>202511000065</v>
       </c>
       <c r="F139" t="s">
+        <v>63</v>
+      </c>
+      <c r="G139" t="s">
         <v>38</v>
       </c>
-      <c r="G139" t="s">
+      <c r="H139" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A140">
         <v>4</v>
       </c>
@@ -3434,13 +3858,16 @@
         <v>202511000065</v>
       </c>
       <c r="F140" t="s">
+        <v>63</v>
+      </c>
+      <c r="G140" t="s">
         <v>38</v>
       </c>
-      <c r="G140" t="s">
+      <c r="H140" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A141">
         <v>5</v>
       </c>
@@ -3457,13 +3884,16 @@
         <v>202511000065</v>
       </c>
       <c r="F141" t="s">
+        <v>63</v>
+      </c>
+      <c r="G141" t="s">
         <v>38</v>
       </c>
-      <c r="G141" t="s">
+      <c r="H141" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A142">
         <v>6</v>
       </c>
@@ -3480,13 +3910,16 @@
         <v>202511000065</v>
       </c>
       <c r="F142" t="s">
+        <v>63</v>
+      </c>
+      <c r="G142" t="s">
         <v>38</v>
       </c>
-      <c r="G142" t="s">
+      <c r="H142" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A143">
         <v>7</v>
       </c>
@@ -3503,13 +3936,16 @@
         <v>202511000065</v>
       </c>
       <c r="F143" t="s">
+        <v>63</v>
+      </c>
+      <c r="G143" t="s">
         <v>38</v>
       </c>
-      <c r="G143" t="s">
+      <c r="H143" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A144">
         <v>8</v>
       </c>
@@ -3526,13 +3962,17 @@
         <v>202511000065</v>
       </c>
       <c r="F144" t="s">
+        <v>63</v>
+      </c>
+      <c r="G144" t="s">
         <v>38</v>
       </c>
-      <c r="G144" t="s">
+      <c r="H144" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
+  <dataConsolidate/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
